--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,81 +58,72 @@
     <t>poor</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -146,6 +137,9 @@
   </si>
   <si>
     <t>favorite</t>
+  </si>
+  <si>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
@@ -530,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -699,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.6666666666666666</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.53125</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7087378640776699</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C7">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.3377049180327869</v>
+        <v>0.453125</v>
       </c>
       <c r="L7">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>808</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6901408450704225</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.2898134863701578</v>
+        <v>0.3377049180327869</v>
       </c>
       <c r="L8">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="M8">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>495</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6386554621848739</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.2551867219917012</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L9">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="M9">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>359</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6351351351351351</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.2048192771084337</v>
+        <v>0.2468879668049793</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>132</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.1590214067278287</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>275</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4840579710144928</v>
+        <v>0.453125</v>
       </c>
       <c r="C12">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.08150744960560911</v>
+        <v>0.1804281345565749</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1048</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4578313253012048</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.03763789746917586</v>
+        <v>0.08939526730937773</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1483</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,25 +1143,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4094488188976378</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>0.03311688311688311</v>
+      </c>
+      <c r="L14">
+        <v>51</v>
+      </c>
+      <c r="M14">
         <v>52</v>
       </c>
-      <c r="D14">
-        <v>52</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>75</v>
+      <c r="N14">
+        <v>0.98</v>
+      </c>
+      <c r="O14">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1489</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3707865168539326</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1201,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3368421052631579</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1219,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1227,13 +1245,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3069306930693069</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1245,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1253,13 +1271,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2959183673469388</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1271,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1279,13 +1297,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2890625</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1297,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1305,13 +1323,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.282051282051282</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1323,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1331,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2731958762886598</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1349,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1357,13 +1375,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2559241706161137</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1375,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1383,25 +1401,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1847826086956522</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>225</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1409,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.180379746835443</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1427,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1435,25 +1453,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1768202080237742</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C25">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>554</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1461,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.17</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C26">
         <v>34</v>
@@ -1479,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1487,13 +1505,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1645569620253164</v>
+        <v>0.145</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1505,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>264</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1513,13 +1531,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1495327102803738</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1531,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>182</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1539,13 +1557,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1211453744493392</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1557,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>399</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1565,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1209677419354839</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1583,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>218</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1591,103 +1609,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1149425287356322</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1068493150684932</v>
-      </c>
-      <c r="C32">
-        <v>39</v>
-      </c>
-      <c r="D32">
-        <v>39</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.066815144766147</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.06260296540362438</v>
-      </c>
-      <c r="C34">
-        <v>38</v>
-      </c>
-      <c r="D34">
-        <v>39</v>
-      </c>
-      <c r="E34">
-        <v>0.03</v>
-      </c>
-      <c r="F34">
-        <v>0.97</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
